--- a/data/trans_dic/P16A_n_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,91</t>
+          <t>0,41; 1,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,51</t>
+          <t>0,63; 2,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,45</t>
+          <t>1,27; 3,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,95</t>
+          <t>4,69; 7,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,85</t>
+          <t>0,28; 1,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,47</t>
+          <t>3,25; 6,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,95</t>
+          <t>3,57; 6,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,64; 11,47</t>
+          <t>7,64; 11,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,54</t>
+          <t>0,49; 1,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,97</t>
+          <t>2,1; 4,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,7</t>
+          <t>2,63; 4,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 9,3</t>
+          <t>6,79; 9,24</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,5</t>
+          <t>0,89; 2,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,08</t>
+          <t>0,64; 2,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,42</t>
+          <t>0,92; 2,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,94</t>
+          <t>1,92; 4,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,38</t>
+          <t>1,43; 3,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,51</t>
+          <t>3,91; 6,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,7</t>
+          <t>2,38; 4,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 10,83</t>
+          <t>8,04; 10,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,62</t>
+          <t>1,33; 2,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,14</t>
+          <t>2,45; 4,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,32</t>
+          <t>1,83; 3,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,24</t>
+          <t>4,08; 7,3</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,66</t>
+          <t>0,69; 2,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,15</t>
+          <t>1,34; 4,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,11</t>
+          <t>1,07; 3,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,32</t>
+          <t>2,63; 5,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,76</t>
+          <t>2,72; 5,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,18</t>
+          <t>2,53; 5,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,8</t>
+          <t>2,61; 5,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,61</t>
+          <t>2,85; 7,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,74</t>
+          <t>2,02; 3,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,12</t>
+          <t>2,19; 4,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,99</t>
+          <t>2,19; 3,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,83</t>
+          <t>3,1; 5,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,82</t>
+          <t>1,24; 2,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,81</t>
+          <t>1,5; 3,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,16</t>
+          <t>0,64; 2,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,69</t>
+          <t>4,23; 6,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,2</t>
+          <t>2,04; 4,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,53</t>
+          <t>4,6; 7,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,78</t>
+          <t>3,87; 6,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,91</t>
+          <t>8,65; 12,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,27</t>
+          <t>1,84; 3,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,23</t>
+          <t>3,4; 5,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,15</t>
+          <t>2,43; 4,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 9,41</t>
+          <t>7,21; 9,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,02</t>
+          <t>1,12; 1,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,48</t>
+          <t>1,34; 2,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,12</t>
+          <t>1,27; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,29</t>
+          <t>3,57; 5,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,23</t>
+          <t>2,05; 3,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 5,77</t>
+          <t>4,33; 5,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,01</t>
+          <t>3,6; 5,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 9,97</t>
+          <t>7,12; 9,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,39</t>
+          <t>1,71; 2,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,87</t>
+          <t>2,95; 3,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 3,48</t>
+          <t>2,58; 3,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,46</t>
+          <t>5,88; 7,48</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido cinco o más medicamentos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6649</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9445</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14801</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38620</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5868</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32503</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33623</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>70552</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12517</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>41947</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>48424</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>109172</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2842; 13212</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4432; 18004</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8547; 24236</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29786; 50736</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1958; 11354</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22670; 45380</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24035; 45862</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>55387; 83533</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6755; 20465</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29460; 56401</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>35393; 64764</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>92433; 125739</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14584</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12275</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16025</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41727</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21662</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>53482</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35461</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>89673</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36246</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65758</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>51487</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>131400</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8583; 25537</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6524; 21913</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9378; 26776</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22886; 58958</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13849; 32855</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>40319; 69061</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24779; 50127</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>77070; 103402</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25701; 49736</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>50313; 82938</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>37701; 67796</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>87857; 157142</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9366</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17816</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14220</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26716</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28484</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28295</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31151</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51157</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37850</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>46111</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>45371</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>77873</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4669; 17594</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10119; 31321</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8158; 24603</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18560; 37957</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18572; 40406</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19629; 41391</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20494; 42489</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26560; 71773</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27461; 52360</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33628; 62721</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33788; 60323</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50720; 96311</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17815</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22359</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11216</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>49474</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30932</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>62850</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52977</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>118423</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48747</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>85209</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>64193</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>167897</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11723; 26444</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14254; 35324</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5982; 19217</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>39213; 62618</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21182; 43773</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>48382; 81267</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>40399; 70183</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>94759; 140146</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>36394; 64416</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>68067; 103760</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>48246; 81980</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>145669; 194190</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>48414</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>61895</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>56263</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>156537</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>86946</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>177131</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>153213</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>329805</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>135360</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>239025</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>209475</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>486342</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36592; 64528</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>45861; 80691</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>43049; 70937</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>123430; 183887</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>69379; 108246</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>154178; 205263</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>127474; 178651</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>264499; 364092</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>113981; 161115</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>205742; 271287</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>179161; 239935</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>421523; 536767</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>